--- a/data/trans_camb/P21_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P21_R-Edad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.0755708362521007</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.479470019040644</v>
+        <v>2.479470019040639</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.168574392474781</v>
@@ -664,7 +664,7 @@
         <v>1.200726661761886</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.1225357964905444</v>
+        <v>0.1225357964905416</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.252395342268153</v>
+        <v>-0.9387639574724507</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.886455660427036</v>
+        <v>-2.445965844271189</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.368618531831631</v>
+        <v>-8.206928930872389</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2000615487078697</v>
+        <v>0.2062870761286831</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.60656811762536</v>
+        <v>-5.386485809474261</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.67079247514658</v>
+        <v>-4.708932428867465</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.180339549127613</v>
+        <v>1.151865144336156</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.426404225162713</v>
+        <v>-2.763786390715244</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.117005605524167</v>
+        <v>-4.791371756946312</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.04606354325756</v>
+        <v>9.989662098124024</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.365807761731974</v>
+        <v>8.447493090440677</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.737504694543078</v>
+        <v>5.791037632274895</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.58896446298862</v>
+        <v>11.2973107125373</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.585247884739312</v>
+        <v>5.887125351933568</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.876538714363182</v>
+        <v>9.870212193442955</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.897958554124013</v>
+        <v>9.395032222700246</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.175586441828296</v>
+        <v>5.448031275660627</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.687546845600248</v>
+        <v>5.596429792031493</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.003162088530284062</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1037477431404457</v>
+        <v>0.1037477431404455</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.2366489959481898</v>
@@ -769,7 +769,7 @@
         <v>0.05497662166339004</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.005610439360110368</v>
+        <v>0.00561043936011024</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.06138722800517857</v>
+        <v>-0.04251784690704288</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1254670731121786</v>
+        <v>-0.1121162618736355</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3829440154275818</v>
+        <v>-0.3872400852561024</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.007567188736916581</v>
+        <v>0.00877655287081925</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2138934298057297</v>
+        <v>-0.2053058377165626</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1837101418362729</v>
+        <v>-0.1886350519047544</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05212813079838124</v>
+        <v>0.04501535064878333</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1061311663350348</v>
+        <v>-0.1171419392994503</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2196775200933065</v>
+        <v>-0.2130816212365505</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.52384278983768</v>
+        <v>0.5687513157549176</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4873139284106419</v>
+        <v>0.4794171965104245</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3349732242602198</v>
+        <v>0.293391354490789</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5388491508968432</v>
+        <v>0.531393888146206</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.260687393108985</v>
+        <v>0.2690539428064874</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4535134417095533</v>
+        <v>0.4567537033158685</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4504827357248883</v>
+        <v>0.4642615140349234</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2583053076379903</v>
+        <v>0.2681781615810973</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2937248886788077</v>
+        <v>0.2727687507217983</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.303372160945573</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.296417369579124</v>
+        <v>5.296417369579121</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.253389580906526</v>
@@ -878,7 +878,7 @@
         <v>-1.176026856395873</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.517938287518422</v>
+        <v>1.517938287518419</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.742137944378012</v>
+        <v>4.07486362394115</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.546758461296078</v>
+        <v>-2.436723394258892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1047851108445964</v>
+        <v>0.1935853941338563</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9790345059124584</v>
+        <v>-0.1491872185173607</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.955612609306073</v>
+        <v>-9.987879304324695</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-8.868095573379913</v>
+        <v>-9.55494685757785</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.62770504526304</v>
+        <v>3.861848771655465</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.417938513992432</v>
+        <v>-4.682592487062865</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.464909338195188</v>
+        <v>-2.433562339814316</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.19129637055806</v>
+        <v>12.74051049995722</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.739063703559848</v>
+        <v>5.523990163308548</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.09481130007023</v>
+        <v>11.76780045301306</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.45669678072624</v>
+        <v>10.64857601376569</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7553443420114708</v>
+        <v>0.3544670016674632</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.343304552710902</v>
+        <v>1.735316814194588</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.79397593592512</v>
+        <v>10.70393034425557</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.180297789847833</v>
+        <v>2.089780307957136</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.834822933541648</v>
+        <v>5.43140951270985</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.08608092015728207</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3498006896047405</v>
+        <v>0.3498006896047404</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1773779584970341</v>
@@ -983,7 +983,7 @@
         <v>-0.05396073918987716</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.0696489808830847</v>
+        <v>0.06964898088308456</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2692339781356015</v>
+        <v>0.2398301764977283</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1546399068533943</v>
+        <v>-0.1444956299908816</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.00895920167519506</v>
+        <v>-0.001237873052255311</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0308309578860524</v>
+        <v>-0.008063389481612577</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3123064744672306</v>
+        <v>-0.3113657844494521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2794433834028912</v>
+        <v>-0.2897487446158686</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1574869219714276</v>
+        <v>0.1655620242086431</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1866280074077195</v>
+        <v>-0.1990049042013495</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1035541286750772</v>
+        <v>-0.1084066587502309</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.995571407758382</v>
+        <v>0.9785660423180523</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.415019363755248</v>
+        <v>0.4140780701386479</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8100479613237368</v>
+        <v>0.8406598773881212</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3850695428672793</v>
+        <v>0.3912703031500429</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02262302798000837</v>
+        <v>0.01172316032254104</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08753537630869124</v>
+        <v>0.06846494554866564</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5326357160864105</v>
+        <v>0.5347221891970347</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1084905624785616</v>
+        <v>0.1019736564306289</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2869524217840044</v>
+        <v>0.2676107198517623</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>2.070423578055172</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.664984433883375</v>
+        <v>6.664984433883372</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.003824278770455</v>
@@ -1092,7 +1092,7 @@
         <v>1.732074634376721</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.44212513623239</v>
+        <v>5.442125136232392</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4739359269558686</v>
+        <v>-0.2203535961505177</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.837888949903461</v>
+        <v>-1.93055139359025</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.761896966668125</v>
+        <v>2.495924696132256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.0703190336356064</v>
+        <v>0.04473546426115411</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.787887044299506</v>
+        <v>-2.979460043361658</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.2970168187785415</v>
+        <v>-0.09062524996951343</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.137409334433187</v>
+        <v>1.044387468116716</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.232079326378142</v>
+        <v>-1.385948945394271</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.148415105711025</v>
+        <v>1.953231009217168</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.834825966776199</v>
+        <v>8.500925687177903</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.030716825094452</v>
+        <v>6.245171552501687</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.97455215044122</v>
+        <v>11.13611648407328</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.550306399612984</v>
+        <v>8.650374706346478</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.281841130963699</v>
+        <v>6.010053063156382</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.193419909808931</v>
+        <v>8.564263696939873</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.469051985416375</v>
+        <v>7.300216452907788</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.812713814953003</v>
+        <v>4.71074840791557</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.478521535960359</v>
+        <v>8.366014124213372</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1473497705073198</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.4743396168672321</v>
+        <v>0.4743396168672319</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2013907374352099</v>
@@ -1197,7 +1197,7 @@
         <v>0.1014090930917586</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3186242460942116</v>
+        <v>0.3186242460942118</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.02990106347628862</v>
+        <v>-0.01726700382381469</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.122053556999817</v>
+        <v>-0.1286354329327959</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.09748954815184949</v>
+        <v>0.1469053703936663</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.006871156784343425</v>
+        <v>0.004203012645037047</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1256534684923344</v>
+        <v>-0.1344278732585332</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.01742144231086757</v>
+        <v>-0.00454874289514781</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06210037967884305</v>
+        <v>0.05572242496675639</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.06657115362817435</v>
+        <v>-0.0760607731974878</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1129561520843686</v>
+        <v>0.09840623836656394</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7433680144849674</v>
+        <v>0.6800204767268447</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5074940769043847</v>
+        <v>0.5056758680248292</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.890996559120625</v>
+        <v>0.9160084867345568</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4711380667594438</v>
+        <v>0.4942890595553227</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3573795251772535</v>
+        <v>0.3250428752748108</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4606658438691978</v>
+        <v>0.4820069242021136</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4787888027195763</v>
+        <v>0.4616412071000299</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.315391184594518</v>
+        <v>0.3009377754735825</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5361777482286193</v>
+        <v>0.5353579207938539</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.247899838778527</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9.38313121877526</v>
+        <v>9.383131218775262</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.9529488216741822</v>
@@ -1306,7 +1306,7 @@
         <v>-1.695648332557384</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.611545933948385</v>
+        <v>6.611545933948388</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.5089789599287</v>
+        <v>-4.085285081457122</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.309440884604797</v>
+        <v>-5.728631095754007</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.802909023656303</v>
+        <v>4.183630746175339</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.034682221993743</v>
+        <v>-4.259159979405115</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.196803101803474</v>
+        <v>-7.222370396072332</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.5371720252319843</v>
+        <v>-0.2096508629819613</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.861102227934512</v>
+        <v>-3.294481890849939</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.944898554547946</v>
+        <v>-5.309489149791096</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.526735637052113</v>
+        <v>3.253496655044816</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.41477585005598</v>
+        <v>4.783168775942777</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.029885252929809</v>
+        <v>3.028531969863208</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.01617430871817</v>
+        <v>13.68223560266647</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.75803868756481</v>
+        <v>5.721655724371913</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.667338696733139</v>
+        <v>2.706916742118033</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.586661989908072</v>
+        <v>7.777427874258638</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.91413797279009</v>
+        <v>3.684667075168365</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.591084168712543</v>
+        <v>1.386764301003346</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.766229016531387</v>
+        <v>9.58757406082743</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.08092770720544984</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.608506606336799</v>
+        <v>0.6085066063367991</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.04728534767199287</v>
@@ -1411,7 +1411,7 @@
         <v>-0.09537620122262036</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3718837941106626</v>
+        <v>0.3718837941106627</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2040837959152502</v>
+        <v>-0.2241932419426549</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3032227277393099</v>
+        <v>-0.3143610588250333</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2517314192834224</v>
+        <v>0.2171986313225211</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1800552690104688</v>
+        <v>-0.1924131278180605</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3056588019428849</v>
+        <v>-0.3169885640780832</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02476466900970749</v>
+        <v>-0.009579643461304705</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1415828445430329</v>
+        <v>-0.1692203862051866</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2495907708039826</v>
+        <v>-0.2714541576332616</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.178178710959782</v>
+        <v>0.164751262439417</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4098353264781911</v>
+        <v>0.3658642842248899</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2276778680437385</v>
+        <v>0.2347989439411228</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.075727289708155</v>
+        <v>1.07139392056066</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3246586437296587</v>
+        <v>0.3275234613768551</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.143439353092182</v>
+        <v>0.1621032234941856</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4377441615808607</v>
+        <v>0.4388767369964393</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2511627076077714</v>
+        <v>0.2329587586710278</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1026796364259799</v>
+        <v>0.08398263641600902</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6209254630329276</v>
+        <v>0.5993957380498541</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-3.213928326846202</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.741209139138614</v>
+        <v>2.741209139138626</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.574935863021576</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.685954334453712</v>
+        <v>-3.75097392962213</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.006796632451359</v>
+        <v>-6.243304538121013</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.9931782304535373</v>
+        <v>-0.968560938994507</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.763196132518459</v>
+        <v>-4.270623482687178</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.720285476685726</v>
+        <v>-8.483690459028216</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.349771568371404</v>
+        <v>-2.423636867821267</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.318374622910102</v>
+        <v>-2.357058460656251</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.058062117132796</v>
+        <v>-5.828073229134323</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.07014743822364444</v>
+        <v>0.1729846819293749</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.368810647327061</v>
+        <v>6.844506697292731</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.958451816644014</v>
+        <v>3.76126330741661</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.790032321290218</v>
+        <v>8.912231591284648</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.377465489282817</v>
+        <v>7.46828302877345</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.357668345501607</v>
+        <v>2.86170623765928</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.932908567969172</v>
+        <v>7.755433640381703</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.209582412420917</v>
+        <v>5.396366871584976</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.391878442593784</v>
+        <v>1.662354680571187</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.722863816960981</v>
+        <v>7.003452939891702</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.150220648208558</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.128125512419472</v>
+        <v>0.1281255124194725</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.0832767604819421</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2412546682439944</v>
+        <v>-0.1954194757772918</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3120859407828883</v>
+        <v>-0.3293278197921882</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0527514540042968</v>
+        <v>-0.0559257557196035</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1583511360735697</v>
+        <v>-0.1728101906778701</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3637182958936929</v>
+        <v>-0.3525862038139622</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.09864375417764137</v>
+        <v>-0.1003837051597663</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1093691016557694</v>
+        <v>-0.1123964337639668</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2878785025180508</v>
+        <v>-0.2758146547539141</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.00935783817514662</v>
+        <v>0.01197241799002501</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4643239450314747</v>
+        <v>0.5424564828462517</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2767710464071471</v>
+        <v>0.2797460142119925</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6655492912440756</v>
+        <v>0.6641015876968944</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4028595950402229</v>
+        <v>0.3984111309309127</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1258421715708224</v>
+        <v>0.1691342478343539</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4469944640269597</v>
+        <v>0.4271082050788276</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3050670856413612</v>
+        <v>0.3204401987109805</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.09128236447668113</v>
+        <v>0.09808889697199782</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3963568038951771</v>
+        <v>0.4249745555017195</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.00538764105525</v>
+        <v>-8.827675171988544</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-10.07982854967274</v>
+        <v>-10.02198036847896</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.674311462430934</v>
+        <v>-9.248801627422958</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.642732452567174</v>
+        <v>-8.309609260422778</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-13.17554927686711</v>
+        <v>-12.71641044616679</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-9.522222583113967</v>
+        <v>-9.463385763782634</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-6.841865639400649</v>
+        <v>-6.547377959513501</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-9.928659742608197</v>
+        <v>-9.692991975593023</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.686018836559327</v>
+        <v>-7.995392332938827</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.02916443729253</v>
+        <v>3.975189521418629</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.453982682194296</v>
+        <v>1.877576449243808</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.356612585379982</v>
+        <v>1.804987144654435</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.816864885293067</v>
+        <v>4.884125719700164</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.5718809601438132</v>
+        <v>0.1246336217252618</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.259509018991128</v>
+        <v>1.117022201309333</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.244762744026298</v>
+        <v>2.243742600516795</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-1.264068661154808</v>
+        <v>-1.031689643506498</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.1138401928068159</v>
+        <v>0.1143557338136257</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4070360913492604</v>
+        <v>-0.3897493171556947</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4113952849161077</v>
+        <v>-0.4343590628873941</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3484402507178926</v>
+        <v>-0.3768574340435652</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2623700414273372</v>
+        <v>-0.2727365968005667</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4166263019168095</v>
+        <v>-0.4186343946010665</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3054023620639734</v>
+        <v>-0.3086922143953248</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.2628721299928158</v>
+        <v>-0.2446418082165074</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3638449642990745</v>
+        <v>-0.3608758541136432</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2878779008061317</v>
+        <v>-0.2941973708585734</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2144671084675987</v>
+        <v>0.2341956168258604</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1496751075934387</v>
+        <v>0.1076635854015678</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1370975323145609</v>
+        <v>0.1054280994641977</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1946751198500368</v>
+        <v>0.2006745397881604</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.01452366222211613</v>
+        <v>0.004136927873846933</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.05485775333002754</v>
+        <v>0.04610964074710824</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09698339108957758</v>
+        <v>0.1004827776102977</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.05501735387407403</v>
+        <v>-0.04390215757573029</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.004129382067004489</v>
+        <v>0.005500020264652326</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>-7.842524275846865</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-4.419331932429015</v>
+        <v>-4.41933193242901</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-4.506392489220666</v>
+        <v>-4.64295219279911</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-16.78675162565542</v>
+        <v>-16.84599244978836</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-13.68609648279021</v>
+        <v>-14.43652228107338</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.267329773778116</v>
+        <v>-2.22792829215376</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-13.34179321061386</v>
+        <v>-14.41347219250493</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-9.712498602736606</v>
+        <v>-9.217631773976894</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.132630412480783</v>
+        <v>-1.564885325469472</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-13.17059969484551</v>
+        <v>-13.45542663107734</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-8.920557869124611</v>
+        <v>-9.334715060462607</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>12.62929473563964</v>
+        <v>12.72761711163101</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.149416993595395</v>
+        <v>-1.953983629224115</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.1400816088537059</v>
+        <v>-0.1880608826221183</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.91053123522996</v>
+        <v>12.32508791679368</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.2052635448442465</v>
+        <v>0.2532996519137807</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.124910676723477</v>
+        <v>3.15175414884624</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>11.21429603585678</v>
+        <v>10.21700898666372</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-2.440917372788375</v>
+        <v>-3.051941781519984</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.3671384399904098</v>
+        <v>0.2357655807560697</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>-0.2636467385706145</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.1485672737072994</v>
+        <v>-0.1485672737072992</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1488398400369952</v>
+        <v>-0.151707503003312</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5323632314863432</v>
+        <v>-0.5404440981186954</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4281281013699221</v>
+        <v>-0.4558730691632453</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.06285737624413582</v>
+        <v>-0.06368255676876522</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3895126100943324</v>
+        <v>-0.407596971623592</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2709152058393436</v>
+        <v>-0.2542116755888049</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.0352455775503256</v>
+        <v>-0.04989563225351876</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4006688221302974</v>
+        <v>-0.4081985026790168</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2776856897195504</v>
+        <v>-0.2811305465268487</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.55432714630252</v>
+        <v>0.5764208893677052</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.09275979917759589</v>
+        <v>-0.07468385774342276</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.008407583197985673</v>
+        <v>0.0008812395254122906</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4829083644855507</v>
+        <v>0.4685728040376431</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.006798898660752804</v>
+        <v>0.006992534726050154</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1117020972706753</v>
+        <v>0.1147547240054751</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4219248806959208</v>
+        <v>0.3719715358222991</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.08732156241746705</v>
+        <v>-0.1097592568240574</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.007509526663363747</v>
+        <v>0.01976891372258553</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-0.4207235521661717</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3.659004373221736</v>
+        <v>3.659004373221741</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>3.158858739820849</v>
@@ -2153,7 +2153,7 @@
         <v>-2.869157597172764</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>0.6805572719389891</v>
+        <v>0.6805572719389946</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>3.35245648172626</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.488020573149294</v>
+        <v>1.65005305374459</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.321618206128275</v>
+        <v>-2.344411315053557</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.654048248418823</v>
+        <v>1.403805865417887</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.247149009632571</v>
+        <v>1.007810058274502</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-4.866375297667523</v>
+        <v>-5.013096542797446</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.28483519245967</v>
+        <v>-1.211877386775301</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.776312592563829</v>
+        <v>1.754167982770443</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.102537994015963</v>
+        <v>-3.105621148043442</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>0.6752716239890051</v>
+        <v>0.9208114844976087</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>5.55740385774485</v>
+        <v>5.430601145013339</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.310539261275435</v>
+        <v>1.366957354780884</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>5.788527566417664</v>
+        <v>5.583132241165647</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.573182186214011</v>
+        <v>5.257284219487553</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.9704854539355755</v>
+        <v>-0.9316643832320252</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.821863589227203</v>
+        <v>2.737327070464678</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.761889471520457</v>
+        <v>4.794818718642153</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-0.2962544825444586</v>
+        <v>-0.3286601492865101</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.570203353028496</v>
+        <v>3.650472552497476</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.0245945512121142</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.2138971540319382</v>
+        <v>0.2138971540319385</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.129506355518056</v>
@@ -2258,7 +2258,7 @@
         <v>-0.1176292371459006</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02790137175147236</v>
+        <v>0.02790137175147259</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1611361338350257</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.07838169950155989</v>
+        <v>0.09122079739023083</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1305119570661614</v>
+        <v>-0.1313534236633689</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.08863993906849355</v>
+        <v>0.0761748406290409</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.04904609328306311</v>
+        <v>0.04025965864125411</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1938600077017109</v>
+        <v>-0.1974664236498273</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.05069076706041405</v>
+        <v>-0.04813247126198806</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.08230710049588881</v>
+        <v>0.08092004212851474</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.144816108954255</v>
+        <v>-0.1433844161069473</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.03113523663700613</v>
+        <v>0.04314885782723728</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3406003114507229</v>
+        <v>0.3380116267924539</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.0825652854037032</v>
+        <v>0.08224720270839</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3490946284840951</v>
+        <v>0.3395338648124119</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2376868143307482</v>
+        <v>0.2279844646830199</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.04134892612945957</v>
+        <v>-0.04109064433123549</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1190875524526893</v>
+        <v>0.1152264699864266</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2344943609768379</v>
+        <v>0.239931268446021</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.01449120956877626</v>
+        <v>-0.0154943319751499</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1786087218990403</v>
+        <v>0.1862313734309165</v>
       </c>
     </row>
     <row r="52">
